--- a/phancong1.xlsx
+++ b/phancong1.xlsx
@@ -326,11 +326,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="83469440"/>
-        <c:axId val="83470976"/>
+        <c:axId val="90809472"/>
+        <c:axId val="90811008"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="83469440"/>
+        <c:axId val="90809472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -339,7 +339,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83470976"/>
+        <c:crossAx val="90811008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -347,7 +347,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="83470976"/>
+        <c:axId val="90811008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -358,7 +358,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83469440"/>
+        <c:crossAx val="90809472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -701,8 +701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
